--- a/config_4.6/box_exchange_server.xlsx
+++ b/config_4.6/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -28377,8 +28377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -28423,6 +28423,9 @@
       <c r="D2">
         <v>10</v>
       </c>
+      <c r="F2">
+        <v>1000479</v>
+      </c>
       <c r="G2" s="5" t="s">
         <v>871</v>
       </c>
@@ -28438,7 +28441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/config_4.6/box_exchange_server.xlsx
+++ b/config_4.6/box_exchange_server.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="874">
   <si>
     <t>id|</t>
   </si>
@@ -6038,6 +6038,10 @@
   </si>
   <si>
     <t>ltqf_001</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltqf_012_fqdr_rank</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -28417,6 +28421,9 @@
       <c r="A2">
         <v>88</v>
       </c>
+      <c r="B2" t="s">
+        <v>873</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>870</v>
       </c>
